--- a/数据模版，要跟软件配合使用/模拟机-小型TYA.xlsx
+++ b/数据模版，要跟软件配合使用/模拟机-小型TYA.xlsx
@@ -110,7 +110,7 @@
     <t>训练</t>
   </si>
   <si>
-    <t>珠海市</t>
+    <t>哥谭市</t>
   </si>
   <si>
     <t>SM600</t>
@@ -1263,13 +1263,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83185840707965" defaultRowHeight="13.85" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.83185840707965" defaultRowHeight="13.85" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -1525,9 +1525,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="10:10">
-      <c r="J6" s="10"/>
-    </row>
   </sheetData>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B6:B1048576">
@@ -1536,22 +1533,22 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>[1]Sheet1!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5 D6:D1048576">
       <formula1>Sheet1!$B$2:$B$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E5 E6:E1048576">
       <formula1>Sheet1!$C$2:$C$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F5 F6:F1048576">
       <formula1>Sheet1!$D$2:$D$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G5 G6:G1048576">
       <formula1>Sheet1!$E$2:$E$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H5 H6:H1048576">
       <formula1>Sheet1!$F$2:$F$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I5 I6:I1048576">
       <formula1>Sheet1!$G$2:$G$2</formula1>
     </dataValidation>
   </dataValidations>
